--- a/dep/data/column_names_old_08022020.xlsx
+++ b/dep/data/column_names_old_08022020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>old_DB_names</t>
   </si>
@@ -43,49 +43,97 @@
     <t>2011_Griffin_2</t>
   </si>
   <si>
+    <t>2013_Zhang_1A</t>
+  </si>
+  <si>
+    <t>2013_Zhang_1B</t>
+  </si>
+  <si>
+    <t>2013_Zhang_2</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3A</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3B</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3C</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3D</t>
+  </si>
+  <si>
+    <t>2016_Korte</t>
+  </si>
+  <si>
+    <t>2018_Rittershaus_1A</t>
+  </si>
+  <si>
+    <t>2018_Rittershaus_1B</t>
+  </si>
+  <si>
     <t>2012_Zhang</t>
   </si>
   <si>
-    <t>2013_DeJesus</t>
-  </si>
-  <si>
-    <t>2013_Zhang_1</t>
-  </si>
-  <si>
-    <t>2013_Zhang_2</t>
-  </si>
-  <si>
-    <t>2013_Zhang_3A</t>
-  </si>
-  <si>
-    <t>2013_Zhang_3B</t>
-  </si>
-  <si>
-    <t>2013_Zhang_3C</t>
-  </si>
-  <si>
-    <t>2013_Zhang_3D</t>
+    <t>2015_Kieser_GI_1</t>
+  </si>
+  <si>
+    <t>2015_Kieser_GI_2</t>
+  </si>
+  <si>
+    <t>2015_Kieser_GI_3</t>
   </si>
   <si>
     <t>2015_Mendum</t>
   </si>
   <si>
-    <t>2015_Kieser_GI_1</t>
-  </si>
-  <si>
-    <t>2015_Kieser_GI_2</t>
-  </si>
-  <si>
-    <t>2015_Kieser_GI_3</t>
-  </si>
-  <si>
-    <t>2016_Korte</t>
-  </si>
-  <si>
     <t>2016_Nambi</t>
   </si>
   <si>
-    <t>2017A_DeJesus</t>
+    <t>2017_Mishra_1</t>
+  </si>
+  <si>
+    <t>2017_Mishra_2</t>
+  </si>
+  <si>
+    <t>2017_Xu_1A</t>
+  </si>
+  <si>
+    <t>2017_Xu_1B</t>
+  </si>
+  <si>
+    <t>2017_Xu_1C</t>
+  </si>
+  <si>
+    <t>2017_Xu_1D</t>
+  </si>
+  <si>
+    <t>2017_Xu_1E</t>
+  </si>
+  <si>
+    <t>2018_Carey_1A</t>
+  </si>
+  <si>
+    <t>2018_Carey_1B</t>
+  </si>
+  <si>
+    <t>2018_Carey_1C</t>
+  </si>
+  <si>
+    <t>2018_Carey_1D</t>
+  </si>
+  <si>
+    <t>2018_Carey_1E</t>
+  </si>
+  <si>
+    <t>2018_Carey_1F</t>
+  </si>
+  <si>
+    <t>2018_Carey_1G</t>
+  </si>
+  <si>
+    <t>2018_Carey_1H</t>
   </si>
   <si>
     <t>2017B_DeJesus_1A</t>
@@ -95,108 +143,6 @@
   </si>
   <si>
     <t>2017B_DeJesus_1C</t>
-  </si>
-  <si>
-    <t>2017_Xu_1A</t>
-  </si>
-  <si>
-    <t>2017_Xu_1B</t>
-  </si>
-  <si>
-    <t>2017_Xu_1C</t>
-  </si>
-  <si>
-    <t>2017_Xu_1D</t>
-  </si>
-  <si>
-    <t>2017_Xu_1E</t>
-  </si>
-  <si>
-    <t>2017_Mishra_1A</t>
-  </si>
-  <si>
-    <t>2017_Mishra_1B</t>
-  </si>
-  <si>
-    <t>2017_Mishra_1C</t>
-  </si>
-  <si>
-    <t>2017_Mishra_1D</t>
-  </si>
-  <si>
-    <t>2018_Carey_1A</t>
-  </si>
-  <si>
-    <t>2018_Carey_1B</t>
-  </si>
-  <si>
-    <t>2018_Carey_1C</t>
-  </si>
-  <si>
-    <t>2018_Carey_1D</t>
-  </si>
-  <si>
-    <t>2018_Carey_1E</t>
-  </si>
-  <si>
-    <t>2018_Carey_1F</t>
-  </si>
-  <si>
-    <t>2018_Carey_1G</t>
-  </si>
-  <si>
-    <t>2018_Carey_1H</t>
-  </si>
-  <si>
-    <t>2018_Rittershaus_1A</t>
-  </si>
-  <si>
-    <t>2018_Rittershaus_1B</t>
-  </si>
-  <si>
-    <t>Rv3005c</t>
-  </si>
-  <si>
-    <t>Rv1565c</t>
-  </si>
-  <si>
-    <t>ponA1</t>
-  </si>
-  <si>
-    <t>Rv3684</t>
-  </si>
-  <si>
-    <t>Rv3811</t>
-  </si>
-  <si>
-    <t>Rv0950</t>
-  </si>
-  <si>
-    <t>Rv3717</t>
-  </si>
-  <si>
-    <t>Rv3594</t>
-  </si>
-  <si>
-    <t>Rv3916c</t>
-  </si>
-  <si>
-    <t>marP</t>
-  </si>
-  <si>
-    <t>Rv0954</t>
-  </si>
-  <si>
-    <t>Rv1432</t>
-  </si>
-  <si>
-    <t>Rv1096</t>
-  </si>
-  <si>
-    <t>Rv2680</t>
-  </si>
-  <si>
-    <t>Rv0307c</t>
   </si>
 </sst>
 </file>
@@ -554,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,96 +721,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
